--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Wnt5a-Ror2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Wnt5a-Ror2.xlsx
@@ -534,16 +534,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.06862399999999999</v>
+        <v>0.02354566666666667</v>
       </c>
       <c r="H2">
-        <v>0.205872</v>
+        <v>0.07063700000000001</v>
       </c>
       <c r="I2">
-        <v>0.008161958451368766</v>
+        <v>0.002815555392485919</v>
       </c>
       <c r="J2">
-        <v>0.008161958451368766</v>
+        <v>0.002815555392485918</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -552,28 +552,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.1350926666666667</v>
+        <v>0.04009133333333333</v>
       </c>
       <c r="N2">
-        <v>0.405278</v>
+        <v>0.120274</v>
       </c>
       <c r="O2">
-        <v>0.03398966953169371</v>
+        <v>0.01033409631432067</v>
       </c>
       <c r="P2">
-        <v>0.03398966953169372</v>
+        <v>0.01033409631432067</v>
       </c>
       <c r="Q2">
-        <v>0.009270599157333331</v>
+        <v>0.000943977170888889</v>
       </c>
       <c r="R2">
-        <v>0.083435392416</v>
+        <v>0.008495794538000001</v>
       </c>
       <c r="S2">
-        <v>0.0002774222704934389</v>
+        <v>2.909622060425442E-05</v>
       </c>
       <c r="T2">
-        <v>0.000277422270493439</v>
+        <v>2.909622060425442E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.06862399999999999</v>
+        <v>0.02354566666666667</v>
       </c>
       <c r="H3">
-        <v>0.205872</v>
+        <v>0.07063700000000001</v>
       </c>
       <c r="I3">
-        <v>0.008161958451368766</v>
+        <v>0.002815555392485919</v>
       </c>
       <c r="J3">
-        <v>0.008161958451368766</v>
+        <v>0.002815555392485918</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>6.733711</v>
       </c>
       <c r="O3">
-        <v>0.5647397875333248</v>
+        <v>0.578569084147867</v>
       </c>
       <c r="P3">
-        <v>0.5647397875333248</v>
+        <v>0.578569084147867</v>
       </c>
       <c r="Q3">
-        <v>0.1540313945546666</v>
+        <v>0.05284990487855556</v>
       </c>
       <c r="R3">
-        <v>1.386282550992</v>
+        <v>0.475649143907</v>
       </c>
       <c r="S3">
-        <v>0.004609382681681821</v>
+        <v>0.001628993304798166</v>
       </c>
       <c r="T3">
-        <v>0.004609382681681821</v>
+        <v>0.001628993304798166</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.06862399999999999</v>
+        <v>0.02354566666666667</v>
       </c>
       <c r="H4">
-        <v>0.205872</v>
+        <v>0.07063700000000001</v>
       </c>
       <c r="I4">
-        <v>0.008161958451368766</v>
+        <v>0.002815555392485919</v>
       </c>
       <c r="J4">
-        <v>0.008161958451368766</v>
+        <v>0.002815555392485918</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>4.784575</v>
       </c>
       <c r="O4">
-        <v>0.4012705429349815</v>
+        <v>0.4110968195378122</v>
       </c>
       <c r="P4">
-        <v>0.4012705429349816</v>
+        <v>0.4110968195378122</v>
       </c>
       <c r="Q4">
-        <v>0.1094455582666667</v>
+        <v>0.03755200269722223</v>
       </c>
       <c r="R4">
-        <v>0.9850100244</v>
+        <v>0.3379680242750001</v>
       </c>
       <c r="S4">
-        <v>0.003275153499193506</v>
+        <v>0.001157465867083498</v>
       </c>
       <c r="T4">
-        <v>0.003275153499193506</v>
+        <v>0.001157465867083498</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>24.758105</v>
       </c>
       <c r="I5">
-        <v>0.9815546764233375</v>
+        <v>0.9868456480383168</v>
       </c>
       <c r="J5">
-        <v>0.9815546764233374</v>
+        <v>0.9868456480383166</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -738,28 +738,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.1350926666666667</v>
+        <v>0.04009133333333333</v>
       </c>
       <c r="N5">
-        <v>0.405278</v>
+        <v>0.120274</v>
       </c>
       <c r="O5">
-        <v>0.03398966953169371</v>
+        <v>0.01033409631432067</v>
       </c>
       <c r="P5">
-        <v>0.03398966953169372</v>
+        <v>0.01033409631432067</v>
       </c>
       <c r="Q5">
-        <v>1.114879475354444</v>
+        <v>0.3308618134188889</v>
       </c>
       <c r="R5">
-        <v>10.03391527819</v>
+        <v>2.97775632077</v>
       </c>
       <c r="S5">
-        <v>0.03336271907891779</v>
+        <v>0.01019815797419616</v>
       </c>
       <c r="T5">
-        <v>0.03336271907891779</v>
+        <v>0.01019815797419616</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>24.758105</v>
       </c>
       <c r="I6">
-        <v>0.9815546764233375</v>
+        <v>0.9868456480383168</v>
       </c>
       <c r="J6">
-        <v>0.9815546764233374</v>
+        <v>0.9868456480383166</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>6.733711</v>
       </c>
       <c r="O6">
-        <v>0.5647397875333248</v>
+        <v>0.578569084147867</v>
       </c>
       <c r="P6">
-        <v>0.5647397875333248</v>
+        <v>0.578569084147867</v>
       </c>
       <c r="Q6">
         <v>18.52376933085056</v>
@@ -818,10 +818,10 @@
         <v>166.713923977655</v>
       </c>
       <c r="S6">
-        <v>0.554322979415657</v>
+        <v>0.5709583827808372</v>
       </c>
       <c r="T6">
-        <v>0.5543229794156569</v>
+        <v>0.5709583827808372</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>24.758105</v>
       </c>
       <c r="I7">
-        <v>0.9815546764233375</v>
+        <v>0.9868456480383168</v>
       </c>
       <c r="J7">
-        <v>0.9815546764233374</v>
+        <v>0.9868456480383166</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>4.784575</v>
       </c>
       <c r="O7">
-        <v>0.4012705429349815</v>
+        <v>0.4110968195378122</v>
       </c>
       <c r="P7">
-        <v>0.4012705429349816</v>
+        <v>0.4110968195378122</v>
       </c>
       <c r="Q7">
         <v>13.16189002559722</v>
@@ -880,10 +880,10 @@
         <v>118.457010230375</v>
       </c>
       <c r="S7">
-        <v>0.3938689779287627</v>
+        <v>0.4056891072832833</v>
       </c>
       <c r="T7">
-        <v>0.3938689779287628</v>
+        <v>0.4056891072832832</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>0.259381</v>
       </c>
       <c r="I8">
-        <v>0.01028336512529378</v>
+        <v>0.0103387965691973</v>
       </c>
       <c r="J8">
-        <v>0.01028336512529378</v>
+        <v>0.0103387965691973</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -924,28 +924,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.1350926666666667</v>
+        <v>0.04009133333333333</v>
       </c>
       <c r="N8">
-        <v>0.405278</v>
+        <v>0.120274</v>
       </c>
       <c r="O8">
-        <v>0.03398966953169371</v>
+        <v>0.01033409631432067</v>
       </c>
       <c r="P8">
-        <v>0.03398966953169372</v>
+        <v>0.01033409631432067</v>
       </c>
       <c r="Q8">
-        <v>0.01168015699088889</v>
+        <v>0.003466310043777777</v>
       </c>
       <c r="R8">
-        <v>0.105121412918</v>
+        <v>0.031196790394</v>
       </c>
       <c r="S8">
-        <v>0.0003495281822824798</v>
+        <v>0.000106842119520253</v>
       </c>
       <c r="T8">
-        <v>0.0003495281822824798</v>
+        <v>0.0001068421195202531</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>0.259381</v>
       </c>
       <c r="I9">
-        <v>0.01028336512529378</v>
+        <v>0.0103387965691973</v>
       </c>
       <c r="J9">
-        <v>0.01028336512529378</v>
+        <v>0.0103387965691973</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>6.733711</v>
       </c>
       <c r="O9">
-        <v>0.5647397875333248</v>
+        <v>0.578569084147867</v>
       </c>
       <c r="P9">
-        <v>0.5647397875333248</v>
+        <v>0.578569084147867</v>
       </c>
       <c r="Q9">
         <v>0.1940662992101111</v>
@@ -1004,10 +1004,10 @@
         <v>1.746596692891</v>
       </c>
       <c r="S9">
-        <v>0.005807425435986013</v>
+        <v>0.005981708062231593</v>
       </c>
       <c r="T9">
-        <v>0.005807425435986013</v>
+        <v>0.005981708062231593</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>0.259381</v>
       </c>
       <c r="I10">
-        <v>0.01028336512529378</v>
+        <v>0.0103387965691973</v>
       </c>
       <c r="J10">
-        <v>0.01028336512529378</v>
+        <v>0.0103387965691973</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>4.784575</v>
       </c>
       <c r="O10">
-        <v>0.4012705429349815</v>
+        <v>0.4110968195378122</v>
       </c>
       <c r="P10">
-        <v>0.4012705429349816</v>
+        <v>0.4110968195378122</v>
       </c>
       <c r="Q10">
         <v>0.1378919831194444</v>
@@ -1066,10 +1066,10 @@
         <v>1.241027848075</v>
       </c>
       <c r="S10">
-        <v>0.004126411507025291</v>
+        <v>0.004250246387445456</v>
       </c>
       <c r="T10">
-        <v>0.004126411507025292</v>
+        <v>0.004250246387445456</v>
       </c>
     </row>
   </sheetData>
